--- a/Dashboards/Tracked Player.xlsx
+++ b/Dashboards/Tracked Player.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -103,12 +103,12 @@
     <x:t>le7</x:t>
   </x:si>
   <x:si>
+    <x:t>Idol</x:t>
+  </x:si>
+  <x:si>
     <x:t>PoopyDoopy</x:t>
   </x:si>
   <x:si>
-    <x:t>Idol</x:t>
-  </x:si>
-  <x:si>
     <x:t>Colonial</x:t>
   </x:si>
   <x:si>
@@ -304,7 +304,7 @@
     <x:t>4,0 (12/3)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,1 (53/13)</x:t>
+    <x:t>3,9 (62/16)</x:t>
   </x:si>
   <x:si>
     <x:t>6,0 (6/1)</x:t>
@@ -319,6 +319,9 @@
     <x:t>1,8 (7/4)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,0 (9/3)</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,0 (3/1)</x:t>
   </x:si>
   <x:si>
@@ -391,7 +394,7 @@
     <x:t>3,2 (86/27)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,2 (924/412)</x:t>
+    <x:t>2,2 (934/419)</x:t>
   </x:si>
   <x:si>
     <x:t>2,3 (161/71)</x:t>
@@ -415,6 +418,9 @@
     <x:t>2,2 (228/103)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,4 (11/8)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,2 (865/399)</x:t>
   </x:si>
   <x:si>
@@ -475,7 +481,7 @@
     <x:t>1,7 (17/10)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,7 (1390/825)</x:t>
+    <x:t>1,7 (1478/879)</x:t>
   </x:si>
   <x:si>
     <x:t>1,5 (100/68)</x:t>
@@ -505,7 +511,7 @@
     <x:t>1,4 (226/158)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,3 (54/42)</x:t>
+    <x:t>1,5 (142/96)</x:t>
   </x:si>
   <x:si>
     <x:t>1,6 (366/230)</x:t>
@@ -532,7 +538,7 @@
     <x:t>2,1 (50/24)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (1615/1049)</x:t>
+    <x:t>1,5 (1620/1056)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (75/42)</x:t>
@@ -1253,10 +1259,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>5422.35415624988</x:v>
+        <x:v>5675.83033680545</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>1881032.234625</x:v>
+        <x:v>1884073.94879167</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
       <x:c r="F3" s="16" t="s"/>
@@ -1294,7 +1300,7 @@
         <x:v>7994.284291666</x:v>
       </x:c>
       <x:c r="R3" s="16" t="n">
-        <x:v>1257.94433333352</x:v>
+        <x:v>4299.65850000037</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1302,10 +1308,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>3509.34751785711</x:v>
+        <x:v>3525.29707738092</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>355708.866666666</x:v>
+        <x:v>355932.1605</x:v>
       </x:c>
       <x:c r="E4" s="16" t="n">
         <x:v>0</x:v>
@@ -1347,7 +1353,7 @@
         <x:v>11708.1220416667</x:v>
       </x:c>
       <x:c r="R4" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>223.2938333333</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1355,10 +1361,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>3477.30907291666</x:v>
+        <x:v>3496.88033680555</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>600473.608041666</x:v>
+        <x:v>600708.463208332</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="s"/>
@@ -1396,7 +1402,7 @@
         <x:v>7424.15474999952</x:v>
       </x:c>
       <x:c r="R5" s="16" t="n">
-        <x:v>24.8858333332464</x:v>
+        <x:v>259.740999999922</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1950,10 +1956,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>153.119593750006</x:v>
+        <x:v>170.807069444445</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>176733.667125</x:v>
+        <x:v>86086.2818541666</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s"/>
       <x:c r="F17" s="16" t="s"/>
@@ -1961,19 +1967,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="16" t="n">
-        <x:v>118.688999999984</x:v>
+        <x:v>219.493166666667</x:v>
       </x:c>
       <x:c r="I17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1218.238</x:v>
       </x:c>
       <x:c r="J17" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K17" s="16" t="n">
-        <x:v>1252.44362500007</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="16" t="n">
-        <x:v>319.653166666656</x:v>
+        <x:v>56.4946666666656</x:v>
       </x:c>
       <x:c r="M17" s="16" t="n">
         <x:v>0</x:v>
@@ -1982,16 +1988,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O17" s="16" t="n">
-        <x:v>146.649333333364</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>227.822166666665</x:v>
       </x:c>
       <x:c r="Q17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>94.9375</x:v>
       </x:c>
       <x:c r="R17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>232.699333333338</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
@@ -1999,10 +2005,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>151.415458333333</x:v>
+        <x:v>153.119593750006</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>85853.5825208333</x:v>
+        <x:v>176733.667125</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s"/>
       <x:c r="F18" s="16" t="s"/>
@@ -2010,19 +2016,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="16" t="n">
-        <x:v>219.493166666667</x:v>
+        <x:v>118.688999999984</x:v>
       </x:c>
       <x:c r="I18" s="16" t="n">
-        <x:v>1218.238</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J18" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1252.44362500007</x:v>
       </x:c>
       <x:c r="L18" s="16" t="n">
-        <x:v>56.4946666666656</x:v>
+        <x:v>319.653166666656</x:v>
       </x:c>
       <x:c r="M18" s="16" t="n">
         <x:v>0</x:v>
@@ -2031,13 +2037,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>146.649333333364</x:v>
       </x:c>
       <x:c r="P18" s="16" t="n">
-        <x:v>227.822166666665</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q18" s="16" t="n">
-        <x:v>94.9375</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R18" s="16" t="n">
         <x:v>0</x:v>
@@ -4662,7 +4668,7 @@
     <x:col min="9" max="10" width="15.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="13.270625" style="0" customWidth="1"/>
     <x:col min="12" max="16" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="14.700625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -4818,7 +4824,7 @@
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
         <x:v>85</x:v>
@@ -4863,7 +4869,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -4871,7 +4877,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>77</x:v>
@@ -4883,7 +4889,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
         <x:v>78</x:v>
@@ -4921,7 +4927,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>77</x:v>
@@ -4930,37 +4936,37 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
         <x:v>78</x:v>
@@ -4971,7 +4977,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
         <x:v>77</x:v>
@@ -4986,13 +4992,13 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
         <x:v>78</x:v>
@@ -5001,10 +5007,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
         <x:v>78</x:v>
@@ -5021,7 +5027,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
         <x:v>77</x:v>
@@ -5048,22 +5054,22 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -5071,7 +5077,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>77</x:v>
@@ -5083,16 +5089,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
         <x:v>78</x:v>
@@ -5104,16 +5110,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -5121,7 +5127,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
         <x:v>77</x:v>
@@ -5130,19 +5136,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
         <x:v>78</x:v>
@@ -5151,16 +5157,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
         <x:v>78</x:v>
@@ -5171,13 +5177,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
         <x:v>78</x:v>
@@ -5189,7 +5195,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
         <x:v>78</x:v>
@@ -5221,7 +5227,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
         <x:v>77</x:v>
@@ -5242,7 +5248,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
         <x:v>78</x:v>
@@ -5271,19 +5277,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
         <x:v>78</x:v>
@@ -5292,25 +5298,25 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
         <x:v>78</x:v>
@@ -5321,7 +5327,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
         <x:v>77</x:v>
@@ -5333,37 +5339,37 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -5371,7 +5377,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
         <x:v>77</x:v>
@@ -5383,19 +5389,19 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
         <x:v>78</x:v>
@@ -5407,10 +5413,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
         <x:v>78</x:v>
@@ -5421,49 +5427,49 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D16" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E16" s="19" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F16" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G16" s="19" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="H16" s="19" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="I16" s="19" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="J16" s="19" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="K16" s="19" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L16" s="19" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="M16" s="19" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="N16" s="19" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="O16" s="19" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="P16" s="19" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="Q16" s="19" t="s">
         <x:v>161</x:v>
-      </x:c>
-      <x:c r="D16" s="19" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E16" s="19" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="F16" s="19" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G16" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="H16" s="19" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="I16" s="19" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="J16" s="19" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="K16" s="19" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="L16" s="19" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="M16" s="19" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="N16" s="19" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="O16" s="19" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="P16" s="19" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="Q16" s="19" t="s">
-        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -5471,7 +5477,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
         <x:v>77</x:v>
@@ -5483,10 +5489,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
         <x:v>78</x:v>
@@ -5501,16 +5507,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
         <x:v>78</x:v>
@@ -5521,7 +5527,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
         <x:v>77</x:v>
@@ -5542,16 +5548,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
         <x:v>78</x:v>
@@ -5571,7 +5577,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
         <x:v>77</x:v>
@@ -5580,19 +5586,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
         <x:v>78</x:v>
@@ -5601,16 +5607,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
         <x:v>78</x:v>
@@ -5618,10 +5624,10 @@
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
         <x:v>77</x:v>
@@ -5633,7 +5639,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
         <x:v>78</x:v>
@@ -5642,10 +5648,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
         <x:v>78</x:v>
@@ -5654,7 +5660,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
         <x:v>78</x:v>
@@ -5671,7 +5677,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
         <x:v>77</x:v>
@@ -5689,10 +5695,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
         <x:v>78</x:v>
@@ -5710,7 +5716,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
         <x:v>77</x:v>
@@ -5721,7 +5727,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
         <x:v>77</x:v>
@@ -5733,7 +5739,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
         <x:v>78</x:v>
@@ -5745,7 +5751,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
         <x:v>78</x:v>
@@ -5771,7 +5777,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
         <x:v>77</x:v>
@@ -5780,16 +5786,16 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
         <x:v>78</x:v>
@@ -5801,10 +5807,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
         <x:v>78</x:v>
@@ -5813,7 +5819,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -5821,7 +5827,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
         <x:v>77</x:v>
@@ -5839,13 +5845,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
         <x:v>78</x:v>
@@ -5871,7 +5877,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
         <x:v>77</x:v>
@@ -5895,7 +5901,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
         <x:v>78</x:v>
@@ -5921,7 +5927,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
         <x:v>78</x:v>
@@ -5933,13 +5939,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
         <x:v>78</x:v>
@@ -5957,7 +5963,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
         <x:v>78</x:v>
@@ -5971,7 +5977,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
         <x:v>77</x:v>
@@ -6004,13 +6010,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
         <x:v>78</x:v>
@@ -6021,7 +6027,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
         <x:v>77</x:v>
@@ -6063,7 +6069,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -6071,7 +6077,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
         <x:v>77</x:v>
@@ -6083,7 +6089,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
         <x:v>78</x:v>
@@ -6121,7 +6127,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
         <x:v>77</x:v>
@@ -6133,13 +6139,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
         <x:v>78</x:v>
@@ -7371,7 +7377,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
         <x:v>77</x:v>
@@ -7410,7 +7416,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
         <x:v>78</x:v>
